--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B63A96DD-D16C-4243-B666-06294E251ECA}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB353A17-59A1-4D44-B603-B1DB5E5CA2A8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18650" yWindow="3080" windowWidth="18760" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Nr.</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Theorieeinlage</t>
+  </si>
+  <si>
+    <t>Mockup erstellen</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -317,6 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1351,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1596,8 +1615,8 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1609,107 +1628,107 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="12">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="13">
         <v>0.2</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="12">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1720,24 +1739,20 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="R14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1748,25 +1763,25 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="R15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1776,25 +1791,25 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="R16" s="19"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1804,26 +1819,26 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="R17" s="20"/>
+      <c r="R17" s="19"/>
       <c r="S17" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1832,23 +1847,27 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1857,56 +1876,56 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="12">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
@@ -1917,64 +1936,63 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="12">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="13">
-        <v>6.1</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
@@ -1995,10 +2013,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="13">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2019,13 +2037,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="10"/>
@@ -2041,59 +2059,59 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="12">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13">
-        <v>4</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="10"/>
@@ -2111,10 +2129,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
@@ -2135,10 +2153,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
@@ -2158,34 +2176,38 @@
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="18">
-        <f>SUM(C3:C32)</f>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="A33" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="18">
+        <f>SUM(C3:C33)</f>
+        <v>40.700000000000003</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2200,6 +2222,26 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -329,11 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1074,9 +1069,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1114,7 +1109,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1220,7 +1215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1362,7 +1357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1615,7 +1610,7 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="19"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1632,10 +1627,10 @@
       <c r="A10" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
       <c r="D10" s="13"/>
@@ -1781,7 +1776,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1809,7 +1804,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1838,7 +1833,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1867,7 +1862,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1892,7 +1887,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -1917,7 +1912,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="28"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -1936,7 +1931,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1960,7 +1955,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB353A17-59A1-4D44-B603-B1DB5E5CA2A8}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26CA22AE-2D07-4F70-A57C-E287515FC169}"/>
   <bookViews>
-    <workbookView xWindow="-18650" yWindow="3080" windowWidth="18760" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -92,12 +92,6 @@
     <t>Home Screen</t>
   </si>
   <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
-    <t>Slots Machines</t>
-  </si>
-  <si>
     <t>Styling</t>
   </si>
   <si>
@@ -140,15 +134,9 @@
     <t>Legende</t>
   </si>
   <si>
-    <t>Ist</t>
-  </si>
-  <si>
     <t>Soll</t>
   </si>
   <si>
-    <t>Doku</t>
-  </si>
-  <si>
     <t>Schlusswort</t>
   </si>
   <si>
@@ -165,6 +153,18 @@
   </si>
   <si>
     <t>Mockup erstellen</t>
+  </si>
+  <si>
+    <t>Blackjack game loop programmieren</t>
+  </si>
+  <si>
+    <t>Slots Machines programmieren</t>
+  </si>
+  <si>
+    <t>Erfüllt</t>
+  </si>
+  <si>
+    <t>Nicht erfüllt</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,13 @@
       <b/>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,12 +227,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -238,7 +239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -324,13 +331,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1365,10 +1373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1480,7 +1489,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -1604,12 +1613,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="13">
         <v>0.5</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.5</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="19"/>
       <c r="G9" s="10"/>
@@ -1624,16 +1635,18 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>2.2999999999999998</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="23">
+        <v>37</v>
+      </c>
+      <c r="C10" s="22">
         <v>2</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="19"/>
       <c r="G10" s="10"/>
@@ -1672,12 +1685,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="13">
         <v>0.2</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>0.2</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1721,7 +1736,9 @@
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="19"/>
       <c r="G14" s="10"/>
@@ -1745,7 +1762,9 @@
       <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="19"/>
       <c r="G15" s="10"/>
@@ -1758,8 +1777,8 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="R15" s="22" t="s">
-        <v>32</v>
+      <c r="R15" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="S15" s="10"/>
     </row>
@@ -1773,10 +1792,12 @@
       <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1786,9 +1807,9 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="R16" s="21"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
@@ -1801,10 +1822,12 @@
       <c r="C17" s="13">
         <v>4</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>4</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1814,9 +1837,9 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="R17" s="19"/>
+      <c r="R17" s="24"/>
       <c r="S17" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
@@ -1824,7 +1847,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C18" s="13">
         <v>5</v>
@@ -1833,7 +1856,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1842,9 +1865,9 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="R18" s="20"/>
+      <c r="R18" s="19"/>
       <c r="S18" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
@@ -1852,7 +1875,7 @@
         <v>4.5</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C19" s="13">
         <v>4</v>
@@ -1862,7 +1885,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1876,7 +1899,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13">
         <v>2</v>
@@ -1887,7 +1910,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -1912,7 +1935,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -1920,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
@@ -1931,7 +1954,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1943,7 +1966,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="13">
         <v>2</v>
@@ -1955,7 +1978,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -1965,7 +1988,7 @@
     <row r="24" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1987,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
@@ -2000,7 +2023,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -2011,7 +2034,7 @@
         <v>6.1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2024,8 +2047,8 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -2035,7 +2058,7 @@
         <v>6.2</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
@@ -2048,8 +2071,8 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="25"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -2059,7 +2082,7 @@
         <v>6.3</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13">
         <v>4</v>
@@ -2073,7 +2096,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -2081,7 +2104,7 @@
     <row r="29" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2103,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="13">
         <v>2</v>
@@ -2118,7 +2141,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
@@ -2127,7 +2150,7 @@
         <v>7.1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
@@ -2142,7 +2165,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
@@ -2151,7 +2174,7 @@
         <v>7.2</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
@@ -2166,7 +2189,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
@@ -2175,7 +2198,7 @@
         <v>7.3</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="13">
         <v>1</v>
@@ -2191,19 +2214,22 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="18">
         <f>SUM(C3:C33)</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="17">
+        <f>SUM(D3:D33)</f>
+        <v>13.7</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2220,7 +2246,7 @@
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26CA22AE-2D07-4F70-A57C-E287515FC169}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3367AC6-0EE8-43B7-B457-0796EEE28CF5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1828,7 +1828,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1856,7 +1856,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3367AC6-0EE8-43B7-B457-0796EEE28CF5}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82BD1F5-4061-4F0C-B773-59DC1F91DF8D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1414,7 +1414,7 @@
         <v>45363</v>
       </c>
       <c r="I1" s="5">
-        <v>45370</v>
+        <v>45365</v>
       </c>
       <c r="J1" s="5">
         <v>45377</v>
@@ -1829,7 +1829,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1857,7 +1857,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1885,7 +1885,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="359" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82BD1F5-4061-4F0C-B773-59DC1F91DF8D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1376,8 +1376,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82BD1F5-4061-4F0C-B773-59DC1F91DF8D}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7286431E-9C50-4103-82DF-B7EE3B876027}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1376,8 +1376,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="151" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1858,7 +1858,6 @@
       <c r="G18" s="10"/>
       <c r="H18" s="26"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1886,7 +1885,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -1910,7 +1909,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7286431E-9C50-4103-82DF-B7EE3B876027}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E97084-5F73-4B28-9C94-88810FD6356E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Kurzfassung</t>
   </si>
   <si>
-    <t>Dokumentation abschliessen</t>
-  </si>
-  <si>
     <t>Refactoring</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Nicht erfüllt</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -1376,8 +1376,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1489,7 +1489,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="22">
         <v>2</v>
@@ -1839,7 +1839,7 @@
       <c r="P17" s="10"/>
       <c r="R17" s="24"/>
       <c r="S17" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
@@ -1847,12 +1847,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="13">
         <v>5</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>7</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1866,7 +1868,7 @@
       <c r="P18" s="10"/>
       <c r="R18" s="19"/>
       <c r="S18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
@@ -1874,12 +1876,14 @@
         <v>4.5</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1903,7 +1907,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1942,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
@@ -1953,7 +1959,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2081,18 +2087,20 @@
         <v>6.3</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C28" s="13">
         <v>4</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13">
+        <v>4</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
@@ -2227,7 +2235,7 @@
       </c>
       <c r="D34" s="17">
         <f>SUM(D3:D33)</f>
-        <v>13.7</v>
+        <v>29.7</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E97084-5F73-4B28-9C94-88810FD6356E}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F0B866-BDEC-4D0E-A0A6-436230ACEAA4}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1960,7 +1960,6 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1983,7 +1982,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -2101,7 +2100,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
@@ -2272,6 +2271,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F0B866-BDEC-4D0E-A0A6-436230ACEAA4}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10A5CAB-6415-41BD-B5B4-F364081B8C57}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,8 +1376,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1983,7 +1983,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="26"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -2027,7 +2027,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="20"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -2051,7 +2051,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="20"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="25"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -2075,7 +2075,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="20"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="25"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -2101,7 +2101,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10A5CAB-6415-41BD-B5B4-F364081B8C57}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CE8184-3094-46DB-ABEE-53E71A408979}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +205,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +247,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,8 +338,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1376,8 +1377,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1827,8 +1828,8 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="19"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1858,7 +1859,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="19"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1888,7 +1889,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="19"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1959,7 +1960,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="26"/>
+      <c r="J22" s="25"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1982,10 +1983,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
@@ -2027,9 +2028,9 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
     </row>
@@ -2051,9 +2052,9 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="26"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
@@ -2075,9 +2076,9 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
@@ -2102,8 +2103,8 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="10"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CE8184-3094-46DB-ABEE-53E71A408979}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AB6503-A4F2-4C37-9B5C-8F4FB0D84883}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1053,6 +1060,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!dp_core.gridDP_Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF1631C-F0B2-49B5-9EBE-6FD77B3E3BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12492718" y="0"/>
+          <a:ext cx="203200" cy="203654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1377,8 +1470,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1436,7 +1529,10 @@
         <v>45412</v>
       </c>
       <c r="P1" s="6">
-        <v>45419</v>
+        <v>45417</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>45420</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -1458,6 +1554,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
@@ -1484,6 +1581,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
@@ -1510,6 +1608,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
@@ -1536,6 +1635,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
@@ -1556,6 +1656,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
@@ -1582,6 +1683,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
@@ -1608,6 +1710,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
@@ -1634,6 +1737,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="22">
@@ -1660,6 +1764,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
@@ -1680,6 +1785,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
@@ -1706,6 +1812,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
@@ -1726,6 +1833,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
@@ -1752,6 +1860,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
@@ -1778,6 +1887,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="21" t="s">
         <v>30</v>
       </c>
@@ -1808,6 +1918,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="20"/>
       <c r="S16" s="13" t="s">
         <v>31</v>
@@ -1838,6 +1949,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="24"/>
       <c r="S17" s="13" t="s">
         <v>40</v>
@@ -1867,6 +1979,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="19"/>
       <c r="S18" s="13" t="s">
         <v>39</v>
@@ -1897,6 +2010,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
@@ -1923,6 +2037,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -1943,6 +2058,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="23"/>
       <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
@@ -1965,6 +2081,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
@@ -1989,6 +2106,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
@@ -2009,6 +2127,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
@@ -2032,7 +2151,8 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="13">
@@ -2057,6 +2177,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
@@ -2081,6 +2202,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
@@ -2105,8 +2227,9 @@
       <c r="L28" s="19"/>
       <c r="M28" s="26"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
@@ -2127,6 +2250,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="12">
@@ -2148,9 +2272,10 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="20"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
@@ -2175,6 +2300,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
@@ -2199,8 +2325,9 @@
       <c r="N32" s="20"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="13">
         <v>7.3</v>
       </c>
@@ -2221,10 +2348,11 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="17" t="s">
         <v>26</v>
@@ -2249,8 +2377,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="17" t="s">
         <v>27</v>
@@ -2269,6 +2398,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/abgaben/Zeitplan.xlsx
+++ b/abgaben/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/paul_pietzko_stud_kantisargans_ch/Documents/KSS/Informatik/Herr Steiner/Test-IPA/casino-app/abgaben/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AB6503-A4F2-4C37-9B5C-8F4FB0D84883}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{11A41AB7-B187-4685-9C16-0B50BDC0CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0105A72-1576-4312-AC31-06DBD528D219}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,6 +368,744 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AD1-4738-9E39-4359180839EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,6 +1884,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272317</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264990</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669E8FF1-22AA-E575-B0EB-825844E6E732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1470,8 +2244,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1532,7 +2306,7 @@
         <v>45417</v>
       </c>
       <c r="Q1" s="6">
-        <v>45420</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -2106,7 +2880,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
@@ -2177,7 +2951,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
@@ -2202,7 +2976,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
@@ -2290,7 +3064,7 @@
       <c r="D31" s="13"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
